--- a/SLStitlechange/url.xlsx
+++ b/SLStitlechange/url.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lookang/Desktop/tagui/flows/SLStitlechange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B2D64-0E2D-B748-93B7-362EAEF34932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEE91FD-5B23-A243-974D-F4FE5B6106A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{EFC97B08-9D27-D040-9A8C-E5DF071C1109}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{EFC97B08-9D27-D040-9A8C-E5DF071C1109}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>https://vle.learning.moe.edu.sg/mrv/moe-library/lesson/view/8f68bb0d-a82e-4682-96f2-99a4a3dade6f/cover</t>
   </si>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>[Let's Go Digital] 12.3A Consequences of Drinking Too Much Alcohol [LSS]</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
   </si>
 </sst>
 </file>
@@ -693,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F12350-C4D9-C241-9F97-5C662FB82C99}">
-  <dimension ref="A2:C50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,6 +714,17 @@
     <col min="3" max="3" width="94.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
